--- a/設定ファイル/a_udp.xlsx
+++ b/設定ファイル/a_udp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1010821\Desktop\python\andon\設定ファイル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1010821\Desktop\project\andon\設定ファイル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25290B8-E897-4037-A3AF-3340566E7F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2069E6BE-812C-4BDA-8D32-CB7C3E83E6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{743614D3-A406-4384-ACBB-4942A42A471C}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" activeTab="1" xr2:uid="{743614D3-A406-4384-ACBB-4942A42A471C}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="5" r:id="rId1"/>
@@ -336,16 +336,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>停止纏めON=異常無</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Bit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>String</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -387,15 +377,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C:\Users\1010821\Desktop\python\andon\documents\temp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>a</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>172.30.40.15</t>
+    <t>10.60.37.100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\Users\hluser\Desktop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パンチメンテ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Word</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -443,7 +445,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -466,13 +468,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -487,6 +502,12 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F2EE80-807F-4919-80F9-0D14F36CD1BA}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -896,8 +917,8 @@
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>47</v>
+      <c r="B8" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -950,7 +971,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -961,10 +982,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -981,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6749BE2A-2696-44F4-B268-3EF3DA48496F}">
   <dimension ref="A1:K276"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -994,7 +1015,7 @@
     <col min="8" max="11" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1030,20 +1051,20 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>37</v>
+      <c r="A2" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C2" s="4">
-        <v>33</v>
+        <v>8848</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1553,17 +1574,17 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1584,7 +1605,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/設定ファイル/a_udp.xlsx
+++ b/設定ファイル/a_udp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1010821\Desktop\project\andon\設定ファイル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2069E6BE-812C-4BDA-8D32-CB7C3E83E6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122E267B-6D5D-4456-B5F1-0F3D9C0D0743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" activeTab="1" xr2:uid="{743614D3-A406-4384-ACBB-4942A42A471C}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{743614D3-A406-4384-ACBB-4942A42A471C}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -825,7 +825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F2EE80-807F-4919-80F9-0D14F36CD1BA}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6749BE2A-2696-44F4-B268-3EF3DA48496F}">
   <dimension ref="A1:K276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1058,12 +1058,96 @@
         <v>45</v>
       </c>
       <c r="C2" s="4">
-        <v>8848</v>
+        <v>8924</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="4">
+        <v>8848</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8854</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="4">
+        <v>8850</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="4">
+        <v>8856</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8852</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="4">
+        <v>8858</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>47</v>
       </c>
     </row>

--- a/設定ファイル/a_udp.xlsx
+++ b/設定ファイル/a_udp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1010821\Desktop\project\andon\設定ファイル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122E267B-6D5D-4456-B5F1-0F3D9C0D0743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C274BA-13F7-41A2-A82A-808EFEEAFAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{743614D3-A406-4384-ACBB-4942A42A471C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{743614D3-A406-4384-ACBB-4942A42A471C}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="5" r:id="rId1"/>
@@ -397,7 +397,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Word</t>
+    <t>word</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -825,7 +825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F2EE80-807F-4919-80F9-0D14F36CD1BA}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6749BE2A-2696-44F4-B268-3EF3DA48496F}">
   <dimension ref="A1:K276"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/設定ファイル/a_udp.xlsx
+++ b/設定ファイル/a_udp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1010821\Desktop\project\andon\設定ファイル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C274BA-13F7-41A2-A82A-808EFEEAFAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0011537-3913-4C9E-9DA0-5A466E561D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{743614D3-A406-4384-ACBB-4942A42A471C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6749BE2A-2696-44F4-B268-3EF3DA48496F}">
   <dimension ref="A1:K276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1050,7 +1050,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="6" t="s">
         <v>46</v>
       </c>
@@ -1067,7 +1067,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B3" t="s">
         <v>45</v>
       </c>
@@ -1081,7 +1084,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
@@ -1095,7 +1101,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -1109,7 +1118,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B6" t="s">
         <v>45</v>
       </c>
@@ -1123,7 +1135,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B7" t="s">
         <v>45</v>
       </c>
@@ -1138,6 +1153,9 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>

--- a/設定ファイル/a_udp.xlsx
+++ b/設定ファイル/a_udp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1010821\Desktop\project\andon\設定ファイル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0011537-3913-4C9E-9DA0-5A466E561D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419F4772-0B39-45BA-BB15-3C60A362A907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{743614D3-A406-4384-ACBB-4942A42A471C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{743614D3-A406-4384-ACBB-4942A42A471C}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="5" r:id="rId1"/>
@@ -385,10 +385,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C:\Users\hluser\Desktop</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>D</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -398,6 +394,10 @@
   </si>
   <si>
     <t>word</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\Users\hluser\Desktop\fukotai\src</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -825,7 +825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F2EE80-807F-4919-80F9-0D14F36CD1BA}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -985,7 +985,7 @@
         <v>41</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -1002,7 +1002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6749BE2A-2696-44F4-B268-3EF3DA48496F}">
   <dimension ref="A1:K276"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="2" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="4">
         <v>8924</v>
@@ -1064,15 +1064,15 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="4">
         <v>8848</v>
@@ -1081,15 +1081,15 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4">
         <v>8854</v>
@@ -1098,15 +1098,15 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4">
         <v>8850</v>
@@ -1115,15 +1115,15 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="4">
         <v>8856</v>
@@ -1132,15 +1132,15 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4">
         <v>8852</v>
@@ -1149,15 +1149,15 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4">
         <v>8858</v>
@@ -1166,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
